--- a/public/templates/IT_Procurement_Management_Plan.xlsx
+++ b/public/templates/IT_Procurement_Management_Plan.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Cloud Infrastructure Migration</t>
         </is>
       </c>
     </row>
@@ -644,6 +644,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -654,7 +655,7 @@
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>1. Secure best-in-class AI/ML technology solutions at competitive prices</t>
+          <t>1. Secure best-in-class IT technology solutions at competitive prices</t>
         </is>
       </c>
       <c r="B15" s="6" t="n"/>
@@ -735,6 +736,7 @@
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="7" t="n"/>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
@@ -745,7 +747,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>• Make vs Buy Analysis: Focus on core competencies, outsource specialized AI/ML components</t>
+          <t>• Make vs Buy Analysis: Focus on core competencies, outsource specialized IT components</t>
         </is>
       </c>
       <c r="B23" s="6" t="n"/>
@@ -888,6 +890,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -968,7 +971,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>AI/ML Platform License</t>
+          <t>IT Platform License</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -1878,6 +1881,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -1948,7 +1952,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>AI/ML Platform</t>
+          <t>IT Platform</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
